--- a/results/cross-species-train-test.xlsx
+++ b/results/cross-species-train-test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job Projects\GEP-GNN\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A323B0F-C5D4-4FC7-853C-6B6B97868269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EB908E-C9F0-4667-AFA9-C379D8EC9321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E6B9C589-6059-4092-8611-119125377B76}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="19">
   <si>
     <t>train_species</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Pooled-Balanced20%</t>
+  </si>
+  <si>
+    <t>B. subtilis</t>
+  </si>
+  <si>
+    <t>M. musculus</t>
   </si>
 </sst>
 </file>
@@ -568,30 +574,30 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1101,7 +1107,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{252EC934-4711-49B8-B8C2-366FC39293B5}" name="Table134" displayName="Table134" ref="A1:I11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{252EC934-4711-49B8-B8C2-366FC39293B5}" name="Table134" displayName="Table134" ref="A1:I13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{435E0AFE-AB5F-40C4-B98B-271DE76E5E6E}" name="train_species" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{C9F23F98-AF1E-4166-BF84-F9EE3FDE5982}" name="test_species" dataDxfId="7"/>
@@ -2376,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3309256A-413F-4A08-B978-937C53FC5FAB}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,7 +2684,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2704,6 +2710,64 @@
       </c>
       <c r="I11" s="11">
         <v>0.60260000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5">
+        <v>262</v>
+      </c>
+      <c r="D12" s="5">
+        <v>100</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2280</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1531</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.72370000000000001</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.4017</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8978</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2269</v>
+      </c>
+      <c r="E13" s="5">
+        <v>27487</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10398</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.56479999999999997</v>
       </c>
     </row>
   </sheetData>
